--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rspo2-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Rspo2</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>MuSCs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,10 +546,10 @@
         <v>5.628527</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.574348666666667</v>
+        <v>0.5779736666666667</v>
       </c>
       <c r="N2">
-        <v>4.723046</v>
+        <v>1.733921</v>
       </c>
       <c r="O2">
-        <v>0.0919647296207302</v>
+        <v>0.04835019606981441</v>
       </c>
       <c r="P2">
-        <v>0.107609035279699</v>
+        <v>0.05356228267519154</v>
       </c>
       <c r="Q2">
-        <v>2.953754659249111</v>
+        <v>1.084380129374111</v>
       </c>
       <c r="R2">
-        <v>26.583791933242</v>
+        <v>9.759421164367</v>
       </c>
       <c r="S2">
-        <v>0.0919647296207302</v>
+        <v>0.04782323388641326</v>
       </c>
       <c r="T2">
-        <v>0.107609035279699</v>
+        <v>0.05317168498258477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +608,10 @@
         <v>5.628527</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +626,10 @@
         <v>23.373048</v>
       </c>
       <c r="O3">
-        <v>0.4551080043963893</v>
+        <v>0.6517548686181108</v>
       </c>
       <c r="P3">
-        <v>0.532527345028208</v>
+        <v>0.7220131735856595</v>
       </c>
       <c r="Q3">
         <v>14.61731463781067</v>
@@ -635,10 +638,10 @@
         <v>131.555831740296</v>
       </c>
       <c r="S3">
-        <v>0.4551080043963893</v>
+        <v>0.6446514813202929</v>
       </c>
       <c r="T3">
-        <v>0.532527345028208</v>
+        <v>0.7167479633379105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,40 +670,40 @@
         <v>5.628527</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.4663515</v>
+        <v>0.05015166666666667</v>
       </c>
       <c r="N4">
-        <v>14.932703</v>
+        <v>0.150455</v>
       </c>
       <c r="O4">
-        <v>0.436142902451617</v>
+        <v>0.004195421100317676</v>
       </c>
       <c r="P4">
-        <v>0.3402240342245802</v>
+        <v>0.004647681895481942</v>
       </c>
       <c r="Q4">
-        <v>14.00818700308017</v>
+        <v>0.09409333664277779</v>
       </c>
       <c r="R4">
-        <v>84.049122018481</v>
+        <v>0.8468400297850001</v>
       </c>
       <c r="S4">
-        <v>0.436142902451617</v>
+        <v>0.004149695778746729</v>
       </c>
       <c r="T4">
-        <v>0.3402240342245802</v>
+        <v>0.00461378913113965</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,40 +732,412 @@
         <v>5.628527</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9891011365778073</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9927075980877177</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2873323333333333</v>
+        <v>3.489664</v>
       </c>
       <c r="N5">
-        <v>0.8619969999999999</v>
+        <v>6.979328</v>
       </c>
       <c r="O5">
-        <v>0.01678436353126363</v>
+        <v>0.2919266886169084</v>
       </c>
       <c r="P5">
-        <v>0.01963958546751284</v>
+        <v>0.215597330685123</v>
       </c>
       <c r="Q5">
-        <v>0.5390859320465555</v>
+        <v>6.547222681642666</v>
       </c>
       <c r="R5">
-        <v>4.851773388419</v>
+        <v>39.283336089856</v>
       </c>
       <c r="S5">
-        <v>0.01678436353126363</v>
+        <v>0.2887450195083797</v>
       </c>
       <c r="T5">
-        <v>0.01963958546751284</v>
+        <v>0.2140251082985519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.876175666666667</v>
+      </c>
+      <c r="H6">
+        <v>5.628527</v>
+      </c>
+      <c r="I6">
+        <v>0.9891011365778073</v>
+      </c>
+      <c r="J6">
+        <v>0.9927075980877177</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.0451</v>
+      </c>
+      <c r="N6">
+        <v>0.1353</v>
+      </c>
+      <c r="O6">
+        <v>0.003772825594848836</v>
+      </c>
+      <c r="P6">
+        <v>0.004179531158543795</v>
+      </c>
+      <c r="Q6">
+        <v>0.08461552256666667</v>
+      </c>
+      <c r="R6">
+        <v>0.7615397031000001</v>
+      </c>
+      <c r="S6">
+        <v>0.003731706083974826</v>
+      </c>
+      <c r="T6">
+        <v>0.004149052337530787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0206735</v>
+      </c>
+      <c r="H7">
+        <v>0.041347</v>
+      </c>
+      <c r="I7">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J7">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.5779736666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.733921</v>
+      </c>
+      <c r="O7">
+        <v>0.04835019606981441</v>
+      </c>
+      <c r="P7">
+        <v>0.05356228267519154</v>
+      </c>
+      <c r="Q7">
+        <v>0.01194873859783334</v>
+      </c>
+      <c r="R7">
+        <v>0.07169243158700001</v>
+      </c>
+      <c r="S7">
+        <v>0.0005269621834011445</v>
+      </c>
+      <c r="T7">
+        <v>0.0003905976926067748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.0206735</v>
+      </c>
+      <c r="H8">
+        <v>0.041347</v>
+      </c>
+      <c r="I8">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J8">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.791016</v>
+      </c>
+      <c r="N8">
+        <v>23.373048</v>
+      </c>
+      <c r="O8">
+        <v>0.6517548686181108</v>
+      </c>
+      <c r="P8">
+        <v>0.7220131735856595</v>
+      </c>
+      <c r="Q8">
+        <v>0.161067569276</v>
+      </c>
+      <c r="R8">
+        <v>0.966405415656</v>
+      </c>
+      <c r="S8">
+        <v>0.007103387297817924</v>
+      </c>
+      <c r="T8">
+        <v>0.005265210247749115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.0206735</v>
+      </c>
+      <c r="H9">
+        <v>0.041347</v>
+      </c>
+      <c r="I9">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J9">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.05015166666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.150455</v>
+      </c>
+      <c r="O9">
+        <v>0.004195421100317676</v>
+      </c>
+      <c r="P9">
+        <v>0.004647681895481942</v>
+      </c>
+      <c r="Q9">
+        <v>0.001036810480833333</v>
+      </c>
+      <c r="R9">
+        <v>0.006220862885</v>
+      </c>
+      <c r="S9">
+        <v>4.572532157094769E-05</v>
+      </c>
+      <c r="T9">
+        <v>3.389276434229259E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.0206735</v>
+      </c>
+      <c r="H10">
+        <v>0.041347</v>
+      </c>
+      <c r="I10">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J10">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.489664</v>
+      </c>
+      <c r="N10">
+        <v>6.979328</v>
+      </c>
+      <c r="O10">
+        <v>0.2919266886169084</v>
+      </c>
+      <c r="P10">
+        <v>0.215597330685123</v>
+      </c>
+      <c r="Q10">
+        <v>0.072143568704</v>
+      </c>
+      <c r="R10">
+        <v>0.288574274816</v>
+      </c>
+      <c r="S10">
+        <v>0.003181669108528655</v>
+      </c>
+      <c r="T10">
+        <v>0.001572222386571162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+      <c r="G11">
+        <v>0.0206735</v>
+      </c>
+      <c r="H11">
+        <v>0.041347</v>
+      </c>
+      <c r="I11">
+        <v>0.01089886342219268</v>
+      </c>
+      <c r="J11">
+        <v>0.007292401912282354</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.0451</v>
+      </c>
+      <c r="N11">
+        <v>0.1353</v>
+      </c>
+      <c r="O11">
+        <v>0.003772825594848836</v>
+      </c>
+      <c r="P11">
+        <v>0.004179531158543795</v>
+      </c>
+      <c r="Q11">
+        <v>0.0009323748500000001</v>
+      </c>
+      <c r="R11">
+        <v>0.0055942491</v>
+      </c>
+      <c r="S11">
+        <v>4.111951087401032E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.047882101300846E-05</v>
       </c>
     </row>
   </sheetData>
